--- a/Financial Engineering 1/Bonds_and_cds_v2.xlsx
+++ b/Financial Engineering 1/Bonds_and_cds_v2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\FinEng6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23020" windowHeight="17240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pricing" sheetId="2" r:id="rId1"/>
@@ -83,9 +88,9 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -406,17 +411,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +436,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -442,6 +444,21 @@
       <color indexed="56"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -497,23 +514,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,12 +539,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,12 +570,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Zero coupon bond with recovery"/>
@@ -628,7 +654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -871,176 +897,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="227" zoomScalePageLayoutView="227" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" s="13" customFormat="1" ht="28">
-      <c r="B2" s="9"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="17" t="s">
+    <row r="2" spans="1:36" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="7">
         <v>0.05</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:36" s="15" customFormat="1" ht="42">
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="15" t="s">
+      <c r="J2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:36" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="N3" s="15" t="s">
+      <c r="J3" s="9"/>
+      <c r="N3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="T3" s="15" t="s">
+      <c r="P3" s="9"/>
+      <c r="T3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="Z3" s="15" t="s">
+      <c r="V3" s="9"/>
+      <c r="Z3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AF3" s="15" t="s">
+      <c r="AB3" s="9"/>
+      <c r="AF3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="13" customFormat="1" ht="56">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:36" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="7"/>
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="U4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9" t="s">
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AA4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9" t="s">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AG4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="J5" s="7" t="s">
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="V5" s="7" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="AB5" s="7" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AB5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AH5" s="7" t="s">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AH5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.02</v>
       </c>
@@ -1056,7 +1082,7 @@
       <c r="V6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6</f>
         <v>0.02</v>
@@ -1127,7 +1153,7 @@
         <v>9.9512195121951237</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8:A16" si="1">A7</f>
         <v>0.02</v>
@@ -1198,7 +1224,7 @@
         <v>9.5143367043426519</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1259,7 +1285,7 @@
         <v>9.096634117322731</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1320,7 +1346,7 @@
         <v>8.6972696926597841</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1371,7 +1397,7 @@
         <v>8.3154383402991083</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1422,7 +1448,7 @@
         <v>7.9503703156030516</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1464,7 +1490,7 @@
         <v>7.6013296676009672</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1506,7 +1532,7 @@
         <v>7.2676127553648273</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1539,7 +1565,7 @@
         <v>6.9485468295195432</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1572,40 +1598,40 @@
         <v>70.473085759438959</v>
       </c>
     </row>
-    <row r="17" spans="9:34">
+    <row r="17" spans="9:34" x14ac:dyDescent="0.25">
       <c r="V17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="9:34">
-      <c r="I18" s="6" t="s">
+    <row r="18" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="1">
         <f>SUM(J7:J16)</f>
         <v>101.14503271861986</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P18" s="1">
         <f>SUM(P7:P16)</f>
         <v>92.548107994695954</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="V18" s="1">
         <f>SUM(V7:V16)</f>
         <v>107.34660550543053</v>
       </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AA18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AB18" s="1">
         <f>SUM(AB7:AB16)</f>
         <v>104.02318888855226</v>
       </c>
-      <c r="AG18" s="6" t="s">
+      <c r="AG18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AH18" s="1">
@@ -1625,175 +1651,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="217" zoomScalePageLayoutView="217" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView zoomScaleNormal="217" zoomScalePageLayoutView="217" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="1"/>
-    <col min="21" max="21" width="13.1640625" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36">
-      <c r="B2" s="7"/>
-      <c r="E2" s="12" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="15" customFormat="1" ht="42">
-      <c r="A3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="15" t="s">
+    <row r="3" spans="1:36" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="N3" s="15" t="s">
+      <c r="J3" s="9"/>
+      <c r="N3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="T3" s="15" t="s">
+      <c r="P3" s="9"/>
+      <c r="T3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="Z3" s="15" t="s">
+      <c r="V3" s="9"/>
+      <c r="Z3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AF3" s="15" t="s">
+      <c r="AB3" s="9"/>
+      <c r="AF3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="7" t="s">
+      <c r="U4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7" t="s">
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AG4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="J5" s="7" t="s">
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="V5" s="7" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="AB5" s="7" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AB5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AH5" s="7" t="s">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AH5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="21">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>2.014057304019802E-2</v>
       </c>
       <c r="B6">
@@ -1808,7 +1834,7 @@
       <c r="V6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>A6</f>
         <v>2.014057304019802E-2</v>
@@ -1879,8 +1905,8 @@
         <v>9.9525909564897379</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="21">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>1.9443103338662979E-2</v>
       </c>
       <c r="B8">
@@ -1949,7 +1975,7 @@
         <v>9.5142829964793592</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>A8</f>
         <v>1.9443103338662979E-2</v>
@@ -2010,8 +2036,8 @@
         <v>9.0890594985670514</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="21">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>1.9976518871469267E-2</v>
       </c>
       <c r="B10">
@@ -2070,7 +2096,7 @@
         <v>8.6949658297416175</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>A10</f>
         <v>1.9976518871469267E-2</v>
@@ -2121,8 +2147,8 @@
         <v>8.3223120242149253</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="21">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>2.0123673396117106E-2</v>
       </c>
       <c r="B12">
@@ -2171,7 +2197,7 @@
         <v>7.9571328790331126</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>A12</f>
         <v>2.0123673396117106E-2</v>
@@ -2213,8 +2239,8 @@
         <v>7.6090752449997652</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="21">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>1.9475644903174275E-2</v>
       </c>
       <c r="B14">
@@ -2254,7 +2280,7 @@
         <v>7.2741001950467439</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>A14</f>
         <v>1.9475644903174275E-2</v>
@@ -2287,8 +2313,8 @@
         <v>6.9494543713880432</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="21">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>1.7479162988672775E-2</v>
       </c>
       <c r="B16">
@@ -2319,40 +2345,40 @@
         <v>70.587046740053751</v>
       </c>
     </row>
-    <row r="17" spans="9:34">
+    <row r="17" spans="9:34" x14ac:dyDescent="0.25">
       <c r="V17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="9:34">
-      <c r="I18" s="6" t="s">
+    <row r="18" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="1">
         <f>SUM(J7:J16)</f>
         <v>101.11946877679308</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P18" s="1">
         <f>SUM(P7:P16)</f>
         <v>92.602563776088644</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="V18" s="1">
         <f>SUM(V7:V16)</f>
         <v>107.38905874100207</v>
       </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AA18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AB18" s="1">
         <f>SUM(AB7:AB16)</f>
         <v>104.0778819551724</v>
       </c>
-      <c r="AG18" s="6" t="s">
+      <c r="AG18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AH18" s="1">
@@ -2360,87 +2386,87 @@
         <v>145.9500207360141</v>
       </c>
     </row>
-    <row r="19" spans="9:34">
-      <c r="I19" s="6" t="s">
+    <row r="19" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">Pricing!J18+0.1*RAND()</f>
-        <v>101.18817923210163</v>
-      </c>
-      <c r="O19" s="6" t="s">
+        <v>101.21347490950284</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="1">
         <f ca="1">Pricing!P18+0.1*RAND()</f>
-        <v>92.549107496940891</v>
-      </c>
-      <c r="U19" s="6" t="s">
+        <v>92.557792547810649</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="V19" s="1">
         <f ca="1">Pricing!V18+0.1*RAND()</f>
-        <v>107.44359664722892</v>
-      </c>
-      <c r="AA19" s="6" t="s">
+        <v>107.40764604902257</v>
+      </c>
+      <c r="AA19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AB19" s="1">
         <f ca="1">Pricing!AB18+0.1*RAND()</f>
-        <v>104.08067136195869</v>
-      </c>
-      <c r="AG19" s="6" t="s">
+        <v>104.06640954603262</v>
+      </c>
+      <c r="AG19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AH19" s="1">
         <f ca="1">Pricing!AH18+0.1*RAND()</f>
-        <v>145.88377083623996</v>
-      </c>
-    </row>
-    <row r="20" spans="9:34">
-      <c r="I20" s="6" t="s">
+        <v>145.82436957463389</v>
+      </c>
+    </row>
+    <row r="20" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">(J18-J19)^2</f>
-        <v>4.7211266687079145E-3</v>
-      </c>
-      <c r="O20" s="6" t="s">
+        <v>8.8371529870433178E-3</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="P20" s="1">
         <f ca="1">(P18-P19)^2</f>
-        <v>2.8575737803224538E-3</v>
-      </c>
-      <c r="U20" s="6" t="s">
+        <v>2.0044628815203054E-3</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="V20" s="1">
         <f ca="1">(V18-V19)^2</f>
-        <v>2.9743832156076981E-3</v>
-      </c>
-      <c r="AA20" s="6" t="s">
+        <v>3.4548801944894004E-4</v>
+      </c>
+      <c r="AA20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AB20" s="1">
         <f ca="1">(AB18-AB19)^2</f>
-        <v>7.7807902194101489E-6</v>
-      </c>
-      <c r="AG20" s="6" t="s">
+        <v>1.3161617147061427E-4</v>
+      </c>
+      <c r="AG20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AH20" s="1">
         <f ca="1">(AH18-AH19)^2</f>
-        <v>4.3890492200829596E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="9:34">
-      <c r="I21" s="6" t="s">
+        <v>1.578821435619425E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="11">
         <f ca="1">J20+P20+V20+AB20+AH20</f>
-        <v>1.4949913674940436E-2</v>
+        <v>2.7106934415677429E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2455,535 +2481,529 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="19" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="22" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="15"/>
+    <col min="7" max="7" width="8.85546875" style="16"/>
+    <col min="8" max="8" width="11.42578125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="15"/>
+    <col min="10" max="10" width="9.7109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8">
-        <v>218.88953946553033</v>
-      </c>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="14">
+        <v>301.50762030644034</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="B2" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>0</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
         <v>0.01</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="81" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="D6" s="23">
+        <v>100</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21">
+        <f t="shared" ref="B7:B14" si="0">1/(1+$B$4/4)^(A7/3)</f>
+        <v>0.98765432098765438</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" ref="D7:D14" si="1">D6*(1-C6)</f>
+        <v>99</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" ref="E7:E14" si="2">$B$1/4</f>
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" ref="F7:F14" si="3">E7*D7/100</f>
+        <v>74.623136025843991</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" ref="G7:G14" si="4">F7*B7*N*0.0001</f>
+        <v>73701.86274157431</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" ref="H7:H14" si="5">D6*C6</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" ref="I7:I14" si="6">E7/2*H7/100</f>
+        <v>0.37688452538305045</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" ref="J7:J14" si="7">I7*B7*N*0.0001</f>
+        <v>372.23163000795108</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" ref="K7:K14" si="8">(1-$B$3)*H7/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" ref="L7:L14" si="9">K7*B7*N</f>
+        <v>74074.074074074073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97546105776558456</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>98.01</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="2"/>
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="3"/>
+        <v>73.876904665585556</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="4"/>
+        <v>72064.043569539339</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="6"/>
+        <v>0.37311568012921997</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="7"/>
+        <v>363.95981600777441</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" si="8"/>
+        <v>7.4249999999999993E-3</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="9"/>
+        <v>72427.983539094654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21">
+        <f t="shared" si="0"/>
+        <v>0.96341832865736754</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="1"/>
+        <v>97.029899999999998</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="2"/>
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="3"/>
+        <v>73.138135618929695</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="4"/>
+        <v>70462.620379105123</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="5"/>
+        <v>0.98010000000000008</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="6"/>
+        <v>0.36938452332792776</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="7"/>
+        <v>355.87182009649052</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="8"/>
+        <v>7.3507500000000005E-3</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="9"/>
+        <v>70818.472793781446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:B14" si="0">1/(1+$B$4/4)^(A7/3)</f>
-        <v>0.99750623441396513</v>
-      </c>
-      <c r="C7" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:D14" si="1">D6*(1-C6)</f>
-        <v>98.992971347990107</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" ref="E7:E14" si="2">$B$1/4</f>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ref="F7:F14" si="3">E7*D7/100</f>
-        <v>54.171314771714989</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" ref="G7:G14" si="4">F7*B7*N*0.0001</f>
-        <v>5403.6224211187027</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" ref="H7:H14" si="5">D6*C6</f>
-        <v>1.007028652009901</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7:I14" si="6">E7/2*H7/100</f>
-        <v>0.2755350473338013</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" ref="J7:J14" si="7">I7*B7*N*0.0001</f>
-        <v>27.484792751501381</v>
-      </c>
-      <c r="K7" s="22">
-        <f t="shared" ref="K7:K14" si="8">(1-$B$3)*H7/100</f>
-        <v>5.5386575860544565E-3</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" ref="L7:L14" si="9">K7*B7*N</f>
-        <v>5524.8454723735231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>0.99501868769472834</v>
-      </c>
-      <c r="C8" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
-      </c>
-      <c r="D8" s="3">
+        <v>0.9515242752171531</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="23">
         <f t="shared" si="1"/>
-        <v>97.996083763039891</v>
-      </c>
-      <c r="E8" s="3">
+        <v>96.059601000000001</v>
+      </c>
+      <c r="E10" s="23">
         <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F8" s="1">
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F10" s="21">
         <f t="shared" si="3"/>
-        <v>53.625794110793343</v>
-      </c>
-      <c r="G8" s="4">
+        <v>72.406754262740392</v>
+      </c>
+      <c r="G10" s="16">
         <f t="shared" si="4"/>
-        <v>5335.8667282709284</v>
-      </c>
-      <c r="H8" s="3">
+        <v>68896.784370680558</v>
+      </c>
+      <c r="H10" s="23">
         <f t="shared" si="5"/>
-        <v>0.99688758495021235</v>
-      </c>
-      <c r="I8" s="1">
+        <v>0.97029900000000002</v>
+      </c>
+      <c r="I10" s="21">
         <f t="shared" si="6"/>
-        <v>0.27276033046082093</v>
-      </c>
-      <c r="J8" s="5">
+        <v>0.3656906780946485</v>
+      </c>
+      <c r="J10" s="24">
         <f t="shared" si="7"/>
-        <v>27.140162607030646</v>
-      </c>
-      <c r="K8" s="22">
+        <v>347.96355742767969</v>
+      </c>
+      <c r="K10" s="25">
         <f t="shared" si="8"/>
-        <v>5.4828817172261676E-3</v>
-      </c>
-      <c r="L8" s="5">
+        <v>7.2772425000000003E-3</v>
+      </c>
+      <c r="L10" s="24">
         <f t="shared" si="9"/>
-        <v>5455.5697710597997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+        <v>69244.728953919635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>15</v>
+      </c>
+      <c r="B11" s="21">
         <f t="shared" si="0"/>
-        <v>0.99253734433389373</v>
-      </c>
-      <c r="C9" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
-      </c>
-      <c r="D9" s="3">
+        <v>0.93977706194286736</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="23">
         <f t="shared" si="1"/>
-        <v>97.009235121698453</v>
-      </c>
-      <c r="E9" s="3">
+        <v>95.099004989999997</v>
+      </c>
+      <c r="E11" s="23">
         <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F9" s="1">
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F11" s="21">
         <f t="shared" si="3"/>
-        <v>53.085766999229811</v>
-      </c>
-      <c r="G9" s="4">
+        <v>71.682686720112983</v>
+      </c>
+      <c r="G11" s="16">
         <f t="shared" si="4"/>
-        <v>5268.9606199343407</v>
-      </c>
-      <c r="H9" s="3">
+        <v>67365.744717998779</v>
+      </c>
+      <c r="H11" s="23">
         <f t="shared" si="5"/>
-        <v>0.98684864134143413</v>
-      </c>
-      <c r="I9" s="1">
+        <v>0.96059601000000006</v>
+      </c>
+      <c r="I11" s="21">
         <f t="shared" si="6"/>
-        <v>0.27001355578176356</v>
-      </c>
-      <c r="J9" s="5">
+        <v>0.36203377131370196</v>
+      </c>
+      <c r="J11" s="24">
         <f t="shared" si="7"/>
-        <v>26.799853758978326</v>
-      </c>
-      <c r="K9" s="22">
+        <v>340.23103392928675</v>
+      </c>
+      <c r="K11" s="25">
         <f t="shared" si="8"/>
-        <v>5.4276675273778885E-3</v>
-      </c>
-      <c r="L9" s="5">
+        <v>7.2044700750000003E-3</v>
+      </c>
+      <c r="L11" s="24">
         <f t="shared" si="9"/>
-        <v>5387.1627135509607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
+        <v>67705.957199388096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>18</v>
+      </c>
+      <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>0.99006218886173936</v>
-      </c>
-      <c r="C10" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
-      </c>
-      <c r="D10" s="3">
+        <v>0.92817487599295534</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="23">
         <f t="shared" si="1"/>
-        <v>96.032324328927302</v>
-      </c>
-      <c r="E10" s="3">
+        <v>94.148014940099998</v>
+      </c>
+      <c r="E12" s="23">
         <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F10" s="1">
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F12" s="21">
         <f t="shared" si="3"/>
-        <v>52.551178115408355</v>
-      </c>
-      <c r="G10" s="4">
+        <v>70.965859852911848</v>
+      </c>
+      <c r="G12" s="16">
         <f t="shared" si="4"/>
-        <v>5202.8934432204333</v>
-      </c>
-      <c r="H10" s="3">
+        <v>65868.728168709917</v>
+      </c>
+      <c r="H12" s="23">
         <f t="shared" si="5"/>
-        <v>0.97691079277115545</v>
-      </c>
-      <c r="I10" s="1">
+        <v>0.95099004990000002</v>
+      </c>
+      <c r="I12" s="21">
         <f t="shared" si="6"/>
-        <v>0.26729444191073043</v>
-      </c>
-      <c r="J10" s="5">
+        <v>0.35841343360056499</v>
+      </c>
+      <c r="J12" s="24">
         <f t="shared" si="7"/>
-        <v>26.46381202287148</v>
-      </c>
-      <c r="K10" s="22">
+        <v>332.67034428641375</v>
+      </c>
+      <c r="K12" s="25">
         <f t="shared" si="8"/>
-        <v>5.3730093602413556E-3</v>
-      </c>
-      <c r="L10" s="5">
+        <v>7.1324253742500003E-3</v>
+      </c>
+      <c r="L12" s="24">
         <f t="shared" si="9"/>
-        <v>5319.61340797517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+        <v>66201.380372735017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>21</v>
+      </c>
+      <c r="B13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.91671592690662274</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="1"/>
+        <v>93.206534790698996</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="2"/>
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="3"/>
+        <v>70.256201254382745</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="4"/>
+        <v>64404.978653849714</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="5"/>
+        <v>0.941480149401</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="6"/>
+        <v>0.35482929926455931</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="7"/>
+        <v>325.27766996893797</v>
+      </c>
+      <c r="K13" s="25">
+        <f t="shared" si="8"/>
+        <v>7.0611011205075E-3</v>
+      </c>
+      <c r="L13" s="24">
+        <f t="shared" si="9"/>
+        <v>64730.238586674248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.90539844632752842</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="1"/>
+        <v>92.274469442792011</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="2"/>
+        <v>75.376905076610086</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="3"/>
+        <v>69.553639241838908</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="4"/>
+        <v>62973.75690598636</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="5"/>
+        <v>0.93206534790699003</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="6"/>
+        <v>0.35128100627191372</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="7"/>
+        <v>318.04927730296151</v>
+      </c>
+      <c r="K14" s="25">
+        <f t="shared" si="8"/>
+        <v>6.990490109302425E-3</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="9"/>
+        <v>63291.7888403037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="24">
+        <f>SUM(G7:G14)+SUM(J7:J14)</f>
+        <v>548494.77465647156</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98759320584712151</v>
-      </c>
-      <c r="C11" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>95.098741126037638</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>52.040299122075169</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="4"/>
-        <v>5139.4645843213366</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="5"/>
-        <v>0.93358320288966623</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="6"/>
-        <v>0.25543949666659227</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="7"/>
-        <v>25.227031141293502</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" si="8"/>
-        <v>5.1347076158931651E-3</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="9"/>
-        <v>5071.0023554675618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98513037989737828</v>
-      </c>
-      <c r="C12" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>94.174233800492473</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>51.534386665272443</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="4"/>
-        <v>5076.8089913338235</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="5"/>
-        <v>0.92450732554515436</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="6"/>
-        <v>0.25295622840135995</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="7"/>
-        <v>24.919486538243973</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="8"/>
-        <v>5.084790290498349E-3</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="9"/>
-        <v>5009.1813905771387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98267369565823282</v>
-      </c>
-      <c r="C13" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>93.258714120681276</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>51.033392462558687</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="4"/>
-        <v>5014.9172373159554</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="5"/>
-        <v>0.91551967981119164</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="6"/>
-        <v>0.25049710135687692</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="7"/>
-        <v>24.615691234203716</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="8"/>
-        <v>5.0353582389615547E-3</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="9"/>
-        <v>4948.1140896434817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98022313781369852</v>
-      </c>
-      <c r="C14" s="19">
-        <f>Calibration!$A$9/2</f>
-        <v>9.7215516693314897E-3</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>92.35209471274166</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>50.537268700872659</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="4"/>
-        <v>4953.7800102503415</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="5"/>
-        <v>0.90661940793961726</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="6"/>
-        <v>0.24806188084301822</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="7"/>
-        <v>24.315599521191114</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="8"/>
-        <v>4.9864067436678951E-3</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="9"/>
-        <v>4887.791264693531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="F16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5">
-        <f>SUM(G7:G14)+SUM(J7:J14)</f>
-        <v>41603.280465341173</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="H17" s="24">
         <f>SUM(L7:L14)</f>
-        <v>41603.280465341166</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="10" t="s">
+        <v>548494.6243599708</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="24">
         <f>H17-H16</f>
-        <v>0</v>
+        <v>-0.15029650076758116</v>
       </c>
     </row>
   </sheetData>
